--- a/omnibot/Omni Calculation.xlsx
+++ b/omnibot/Omni Calculation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stoorm\Documents\GitHub\insight_playtech\omnibot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F1D3FF-B996-48DF-B940-137D841E3F2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D28896C-2486-4E4A-B87B-9DAF6B722EB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7515" yWindow="3000" windowWidth="15375" windowHeight="7875" xr2:uid="{158ED23E-BA5D-43BE-AB9B-E173F898ECA6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{158ED23E-BA5D-43BE-AB9B-E173F898ECA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -241,6 +241,236 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Isosceles Triangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B01C9B2-08B2-44D3-A4CB-9622A2E7DD88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266700" y="2305050"/>
+          <a:ext cx="695325" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8F1D608-3DB9-4C28-9CDF-5F5A6F5D783D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="590550" y="1714500"/>
+          <a:ext cx="314325" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D375A817-7249-43AE-AF40-28BC4702C25C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="590550" y="1609725"/>
+          <a:ext cx="0" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>120895</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>22713</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>80597</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>51288</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89BFA0A0-6100-48A2-9457-F38BEA6D9A2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619126" y="1737213"/>
+          <a:ext cx="208817" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>α</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -546,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBCD9F1-9E1D-4934-B8E8-89AF4D97567A}">
-  <dimension ref="A3:N14"/>
+  <dimension ref="A3:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,9 +1029,22 @@
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+    </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G14" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>3</v>
+      </c>
+      <c r="E16" s="7">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
